--- a/沪深300ETF_指数价差走势.xlsx
+++ b/沪深300ETF_指数价差走势.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\东方工作\期权业务\期权每日交易\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="495" windowWidth="4770" windowHeight="2010"/>
   </bookViews>
   <sheets>
-    <sheet name="2017" sheetId="2" r:id="rId1"/>
-    <sheet name="2016" sheetId="4" r:id="rId2"/>
-    <sheet name="2015" sheetId="5" r:id="rId3"/>
-    <sheet name="2014" sheetId="6" r:id="rId4"/>
-    <sheet name="2013" sheetId="7" r:id="rId5"/>
+    <sheet name="2018" sheetId="9" r:id="rId1"/>
+    <sheet name="2017" sheetId="2" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2015" sheetId="5" r:id="rId4"/>
+    <sheet name="2014" sheetId="6" r:id="rId5"/>
+    <sheet name="2013" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -26,7 +32,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +72,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +112,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +152,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +192,7 @@
     <author>Yuchuan Dang</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +207,47 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如需修改，请使用Excel插件-Wind资讯-函数-编辑函数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Yuchuan Dang</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如需修改，请使用Excel插件-Wind资讯-函数-编辑函数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="15">
   <si>
     <t>open</t>
   </si>
@@ -307,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -3474,7 +3520,6 @@
     </xf>
   </cellXfs>
   <cellStyles count="776">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="44"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="294"/>
@@ -3490,7 +3535,6 @@
     <cellStyle name="20% - 强调文字颜色 1 5" xfId="48"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="297"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2 2" xfId="548"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="49"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="50"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="299"/>
@@ -3506,7 +3550,6 @@
     <cellStyle name="20% - 强调文字颜色 2 5" xfId="53"/>
     <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="302"/>
     <cellStyle name="20% - 强调文字颜色 2 5 2 2" xfId="553"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="54"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="55"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="304"/>
@@ -3522,7 +3565,6 @@
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="58"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="307"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2 2" xfId="558"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="59"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="60"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="309"/>
@@ -3538,7 +3580,6 @@
     <cellStyle name="20% - 强调文字颜色 4 5" xfId="63"/>
     <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="312"/>
     <cellStyle name="20% - 强调文字颜色 4 5 2 2" xfId="563"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="64"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="65"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="314"/>
@@ -3554,7 +3595,6 @@
     <cellStyle name="20% - 强调文字颜色 5 5" xfId="68"/>
     <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="317"/>
     <cellStyle name="20% - 强调文字颜色 5 5 2 2" xfId="568"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="70"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="319"/>
@@ -3570,7 +3610,12 @@
     <cellStyle name="20% - 强调文字颜色 6 5" xfId="73"/>
     <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="322"/>
     <cellStyle name="20% - 强调文字颜色 6 5 2 2" xfId="573"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="74"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="75"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="324"/>
@@ -3586,7 +3631,6 @@
     <cellStyle name="40% - 强调文字颜色 1 5" xfId="78"/>
     <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="327"/>
     <cellStyle name="40% - 强调文字颜色 1 5 2 2" xfId="578"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="79"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="80"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="329"/>
@@ -3602,7 +3646,6 @@
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="83"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="332"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2 2" xfId="583"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="84"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="85"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="334"/>
@@ -3618,7 +3661,6 @@
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="88"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="337"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2 2" xfId="588"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="89"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="90"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="339"/>
@@ -3634,7 +3676,6 @@
     <cellStyle name="40% - 强调文字颜色 4 5" xfId="93"/>
     <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="342"/>
     <cellStyle name="40% - 强调文字颜色 4 5 2 2" xfId="593"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="94"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="95"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="344"/>
@@ -3650,7 +3691,6 @@
     <cellStyle name="40% - 强调文字颜色 5 5" xfId="98"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="347"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2 2" xfId="598"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="99"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="100"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="349"/>
@@ -3666,7 +3706,12 @@
     <cellStyle name="40% - 强调文字颜色 6 5" xfId="103"/>
     <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="352"/>
     <cellStyle name="40% - 强调文字颜色 6 5 2 2" xfId="603"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="104"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="105"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2 2" xfId="354"/>
@@ -3682,7 +3727,6 @@
     <cellStyle name="60% - 强调文字颜色 1 5" xfId="108"/>
     <cellStyle name="60% - 强调文字颜色 1 5 2" xfId="357"/>
     <cellStyle name="60% - 强调文字颜色 1 5 2 2" xfId="608"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="109"/>
     <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="110"/>
     <cellStyle name="60% - 强调文字颜色 2 2 2 2" xfId="359"/>
@@ -3698,7 +3742,6 @@
     <cellStyle name="60% - 强调文字颜色 2 5" xfId="113"/>
     <cellStyle name="60% - 强调文字颜色 2 5 2" xfId="362"/>
     <cellStyle name="60% - 强调文字颜色 2 5 2 2" xfId="613"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="114"/>
     <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="115"/>
     <cellStyle name="60% - 强调文字颜色 3 2 2 2" xfId="364"/>
@@ -3714,7 +3757,6 @@
     <cellStyle name="60% - 强调文字颜色 3 5" xfId="118"/>
     <cellStyle name="60% - 强调文字颜色 3 5 2" xfId="367"/>
     <cellStyle name="60% - 强调文字颜色 3 5 2 2" xfId="618"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 4 2" xfId="119"/>
     <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="120"/>
     <cellStyle name="60% - 强调文字颜色 4 2 2 2" xfId="369"/>
@@ -3730,7 +3772,6 @@
     <cellStyle name="60% - 强调文字颜色 4 5" xfId="123"/>
     <cellStyle name="60% - 强调文字颜色 4 5 2" xfId="372"/>
     <cellStyle name="60% - 强调文字颜色 4 5 2 2" xfId="623"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="124"/>
     <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="125"/>
     <cellStyle name="60% - 强调文字颜色 5 2 2 2" xfId="374"/>
@@ -3746,7 +3787,6 @@
     <cellStyle name="60% - 强调文字颜色 5 5" xfId="128"/>
     <cellStyle name="60% - 强调文字颜色 5 5 2" xfId="377"/>
     <cellStyle name="60% - 强调文字颜色 5 5 2 2" xfId="628"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="129"/>
     <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="130"/>
     <cellStyle name="60% - 强调文字颜色 6 2 2 2" xfId="379"/>
@@ -3762,6 +3802,12 @@
     <cellStyle name="60% - 强调文字颜色 6 5" xfId="133"/>
     <cellStyle name="60% - 强调文字颜色 6 5 2" xfId="382"/>
     <cellStyle name="60% - 强调文字颜色 6 5 2 2" xfId="633"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 1 2" xfId="136"/>
@@ -4066,7 +4112,6 @@
     <cellStyle name="链接单元格 7" xfId="227"/>
     <cellStyle name="链接单元格 8" xfId="475"/>
     <cellStyle name="链接单元格 8 2" xfId="710"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1 2" xfId="234"/>
     <cellStyle name="强调文字颜色 1 2 2" xfId="235"/>
     <cellStyle name="强调文字颜色 1 2 2 2" xfId="483"/>
@@ -4082,7 +4127,6 @@
     <cellStyle name="强调文字颜色 1 5" xfId="238"/>
     <cellStyle name="强调文字颜色 1 5 2" xfId="486"/>
     <cellStyle name="强调文字颜色 1 5 2 2" xfId="721"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 2 2" xfId="239"/>
     <cellStyle name="强调文字颜色 2 2 2" xfId="240"/>
     <cellStyle name="强调文字颜色 2 2 2 2" xfId="488"/>
@@ -4098,7 +4142,6 @@
     <cellStyle name="强调文字颜色 2 5" xfId="243"/>
     <cellStyle name="强调文字颜色 2 5 2" xfId="491"/>
     <cellStyle name="强调文字颜色 2 5 2 2" xfId="726"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 3 2" xfId="244"/>
     <cellStyle name="强调文字颜色 3 2 2" xfId="245"/>
     <cellStyle name="强调文字颜色 3 2 2 2" xfId="493"/>
@@ -4114,7 +4157,6 @@
     <cellStyle name="强调文字颜色 3 5" xfId="248"/>
     <cellStyle name="强调文字颜色 3 5 2" xfId="496"/>
     <cellStyle name="强调文字颜色 3 5 2 2" xfId="731"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 4 2" xfId="249"/>
     <cellStyle name="强调文字颜色 4 2 2" xfId="250"/>
     <cellStyle name="强调文字颜色 4 2 2 2" xfId="498"/>
@@ -4130,7 +4172,6 @@
     <cellStyle name="强调文字颜色 4 5" xfId="253"/>
     <cellStyle name="强调文字颜色 4 5 2" xfId="501"/>
     <cellStyle name="强调文字颜色 4 5 2 2" xfId="736"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5 2" xfId="254"/>
     <cellStyle name="强调文字颜色 5 2 2" xfId="255"/>
     <cellStyle name="强调文字颜色 5 2 2 2" xfId="503"/>
@@ -4146,7 +4187,6 @@
     <cellStyle name="强调文字颜色 5 5" xfId="258"/>
     <cellStyle name="强调文字颜色 5 5 2" xfId="506"/>
     <cellStyle name="强调文字颜色 5 5 2 2" xfId="741"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 6 2" xfId="259"/>
     <cellStyle name="强调文字颜色 6 2 2" xfId="260"/>
     <cellStyle name="强调文字颜色 6 2 2 2" xfId="508"/>
@@ -4228,6 +4268,12 @@
     <cellStyle name="输入 7" xfId="278"/>
     <cellStyle name="输入 8" xfId="526"/>
     <cellStyle name="输入 8 2" xfId="761"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="注释 2" xfId="286"/>
     <cellStyle name="注释 2 2" xfId="287"/>
@@ -4257,12 +4303,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4286,7 +4335,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017'!$O$6</c:f>
+              <c:f>'2018'!$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4300,10 +4349,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017'!$N$7:$N$250</c:f>
+              <c:f>'2018'!$N$7:$N$49</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -4432,1362 +4481,161 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>42803</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42804</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42807</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42808</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>42809</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42810</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42811</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>42814</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42815</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>42816</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>42817</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>42818</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>42821</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>42822</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>42823</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>42824</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>42825</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>42830</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>42831</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>42832</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42835</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>42836</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>42837</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>42838</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>42839</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>42842</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>42843</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42844</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42845</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>42846</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>42849</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>42850</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>42851</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>42852</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>42853</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>42857</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>42858</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>42859</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>42860</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>42863</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>42864</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>42865</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>42866</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>42867</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>42870</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>42871</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>42872</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>42873</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>42874</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42877</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>42878</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>42879</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>42880</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>42886</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>42888</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>42891</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>42892</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>42893</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>42894</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>42895</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>42898</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>42899</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>42900</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>42901</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>42902</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>42905</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>42906</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>42907</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>42908</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>42909</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>42912</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>42914</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>42915</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>42919</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>42920</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>42921</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>42922</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>42923</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>42926</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>42927</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>42928</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>42929</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>42930</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>42933</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>42934</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>42935</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>42936</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>42937</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>42940</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>42941</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>42942</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>42943</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>42944</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>42947</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>42948</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>42949</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>42950</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>42951</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>42954</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>42955</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>42956</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>42957</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>42958</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>42961</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>42962</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>42963</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>42964</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>42965</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>42968</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>42969</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>42970</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>42971</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>42972</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>42975</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>42976</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>42977</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>42978</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>42979</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>42982</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>42983</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>42984</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>42985</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>42986</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>42989</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>42990</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>42991</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>42992</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>42993</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>42996</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>42997</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>42998</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>42999</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>43000</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>43003</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>43004</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>43005</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>43006</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>43007</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>43017</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>43018</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>43019</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>43020</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>43021</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>43024</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>43025</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>43026</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>43027</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>43028</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>43031</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>43032</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>43033</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>43034</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>43035</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>43038</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>43039</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>43040</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>43041</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>43042</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>43045</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>43046</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>43047</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>43048</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>43049</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>43052</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>43053</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>43054</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>43055</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>43056</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>43059</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>43060</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>43061</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>43062</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>43063</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>43066</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>43067</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>43068</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>43069</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>43070</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>43073</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>43074</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>43075</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>43076</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>43077</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>43080</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>43081</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>43082</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>43083</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>43084</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>43087</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>43088</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>43089</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>43090</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>43091</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>43094</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>43095</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>43096</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>43097</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>43098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$O$7:$O$250</c:f>
+              <c:f>'2018'!$O$7:$O$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>48.046600000000126</c:v>
+                  <c:v>40.791400000000522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.442399999999907</c:v>
+                  <c:v>44.539299999999912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.659799999999905</c:v>
+                  <c:v>43.878700000000208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.147800000000188</c:v>
+                  <c:v>45.656100000000151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.251699999999801</c:v>
+                  <c:v>45.145499999999629</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.360599999999977</c:v>
+                  <c:v>46.460600000000341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.199200000000019</c:v>
+                  <c:v>46.795600000000377</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.314300000000003</c:v>
+                  <c:v>51.886400000000322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.037499999999909</c:v>
+                  <c:v>44.855599999999868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.849299999999857</c:v>
+                  <c:v>43.164300000000367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.399899999999889</c:v>
+                  <c:v>49.375299999999697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.661099999999806</c:v>
+                  <c:v>47.216699999999946</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.047799999999825</c:v>
+                  <c:v>41.625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.022699999999986</c:v>
+                  <c:v>43.0628999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94570000000021537</c:v>
+                  <c:v>45.518900000000031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.1374000000000706</c:v>
+                  <c:v>6.1114999999999782</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.65610000000015134</c:v>
+                  <c:v>-1.4547000000002299</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.2609000000002197</c:v>
+                  <c:v>6.0231999999996333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.9315000000001419</c:v>
+                  <c:v>-2.2210999999997512</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.10809999999992215</c:v>
+                  <c:v>7.9422999999997046</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.7694999999998799</c:v>
+                  <c:v>5.3166000000001077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.7811000000001513</c:v>
+                  <c:v>11.889900000000125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.899199999999837</c:v>
+                  <c:v>-6.3424999999997453</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.31730000000015934</c:v>
+                  <c:v>-3.938600000000406</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-4.9167999999999665</c:v>
+                  <c:v>24.542000000000371</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7.5109999999999673</c:v>
+                  <c:v>17.674299999999675</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.3881999999998698</c:v>
+                  <c:v>-5.7364999999999782</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1700999999998203</c:v>
+                  <c:v>17.119799999999941</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5.6165999999998348</c:v>
+                  <c:v>8.8308999999999287</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.6433999999999287</c:v>
+                  <c:v>-10.267100000000028</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.0583999999998923</c:v>
+                  <c:v>-8.5954999999999018</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.200800000000072</c:v>
+                  <c:v>-4.094300000000203</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-5.574500000000171</c:v>
+                  <c:v>-4.9731000000001586</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0412000000001171</c:v>
+                  <c:v>-7.7544999999995525</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3.1318999999998596</c:v>
+                  <c:v>4.6012000000000626</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-9.0273999999999432</c:v>
+                  <c:v>7.1288000000004104</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-5.2058000000001812</c:v>
+                  <c:v>11.20889999999963</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-8.4828999999999724</c:v>
+                  <c:v>5.1314000000002125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.3373000000001412</c:v>
+                  <c:v>5.0489999999995234</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3.2532999999998538</c:v>
+                  <c:v>3.3425000000006548</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-7.1628000000000611</c:v>
+                  <c:v>7.0145999999999731</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-8.2006000000001222</c:v>
+                  <c:v>6.4972000000002481</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1046999999998661</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-7.9776000000001659</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-9.6723000000001775</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.65839999999980137</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-7.2139000000001943</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-7.2694000000001324</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-7.3114000000000487</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-9.0515000000000327</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-8.7696000000000822</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.245600000000195</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-2.4056000000000495</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-6.1966000000002168</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.23529999999982465</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-6.2489999999997963</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-3.9664999999999964</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-6.6158999999997832</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-5.8222000000000662</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-2.4230999999999767</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.0120999999999185</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-5.4520999999999731</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-2.4596999999998843</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.17059999999992215</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-2.5722999999998137</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-3.2838000000001557</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-2.8103000000000975</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.2618999999999687</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-6.8892000000000735</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.0095999999998639</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-8.5225000000000364</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-1.3890000000001237</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-7.2278999999998632</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.2678000000000793</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-6.2525999999998021</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.8982999999998356</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.4265000000000327</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-1.9169000000001688</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.24139999999988504</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.0621000000001004</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-2.4830999999999221</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.89159999999992579</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-2.5981000000001586</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-1.6502000000000407</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.0545000000001892</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.2899999999899592E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-2.5880999999999403</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.4999999999818101E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6.8099999999999454</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>11.334499999999935</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-0.2318000000000211</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.4117999999998574</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-1.0253999999999905</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5.283100000000104</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.600800000000163</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>7.379399999999805</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.9270000000001346</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-2.2222999999999047</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3.4106999999999061</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-2.1691999999998188</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.62350000000014916</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.1154000000001361</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>6.7581000000000131</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.7588999999998123</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>9.7809000000002015</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.8405999999999949</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>13.751699999999801</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>19.253499999999804</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>16.025500000000193</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>14.939800000000105</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>15.212899999999991</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>17.874400000000151</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>16.441699999999855</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>24.564100000000053</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>18.979200000000219</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>23.422500000000127</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>25.837100000000191</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>19.747499999999945</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>23.265199999999822</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>17.768399999999929</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>20.172000000000025</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>24.101599999999962</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>30.442399999999907</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>29.358400000000074</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>31.0621000000001</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>33.121700000000146</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>35.367200000000139</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>36.649800000000141</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>48.384700000000066</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>51.382099999999809</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>49.505799999999908</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44.133499999999913</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>54.856400000000122</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>52.815300000000207</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>53.622199999999793</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>57.359500000000025</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>49.123900000000049</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>51.144200000000183</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>53.510499999999865</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>53.571800000000167</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>51.263600000000224</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>53.80619999999999</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>58.891900000000078</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>57.277500000000146</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>50.783899999999903</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>59.671299999999974</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>51.968100000000049</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>48.038000000000011</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>60.06860000000006</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>49.6246000000001</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>51.2199999999998</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>50.866300000000138</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>48.933199999999943</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>59.810899999999947</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>59.160100000000057</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>50.245699999999943</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>55.389200000000073</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>57.109800000000178</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>55.708399999999983</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>56.343299999999999</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>64.822099999999864</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>59.731800000000021</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>55.160600000000159</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>58.660800000000108</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>60.455300000000079</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>57.45490000000018</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>61.252899999999954</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>56.311999999999898</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>59.929299999999785</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>60.657799999999952</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>67.757799999999861</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>66.45069999999987</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>57.427999999999884</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>61.855199999999968</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>60.037400000000162</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>62.120600000000195</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>53.845100000000002</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>60.742299999999886</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>63.541099999999915</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>59.780999999999949</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>62.666700000000219</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>60.035400000000209</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>61.409599999999955</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>63.797900000000027</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>61.885099999999966</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>56.996299999999792</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>61.181599999999889</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>59.984399999999823</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>58.025000000000091</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>61.724600000000009</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>63.210599999999886</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>56.184799999999996</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>57.416900000000169</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>63.473500000000058</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>56.108600000000024</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>59.770100000000184</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>56.833099999999376</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>54.952099999999973</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>65.446100000000115</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>63.835900000000493</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>56.606499999999414</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>53.088400000000092</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>53.9054000000001</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>58.650399999999991</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>48.817600000000311</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>56.598199999999451</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>64.50649999999996</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>63.933700000000044</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>63.723700000000008</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>64.449300000000221</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>60.726399999999558</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>64.78690000000006</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>61.505700000000161</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>63.921299999999974</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>64.266000000000076</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>65.151799999999639</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>58.627900000000409</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>65.621900000000096</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>49.527700000000095</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>51.068200000000161</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>46.794300000000476</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>47.645500000000084</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>62.990899999999783</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>49.439600000000155</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>63.953399999999874</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>56.063900000000103</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>62.876900000000205</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>59.417399999999361</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>59.171200000000681</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>53.121599999999489</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>55.494700000000194</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>49.168099999999413</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>42.097200000000157</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>49.268699999999626</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>44.703499999999622</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>44.176700000000437</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>39.980999999999767</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>38.924000000000433</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>53.086899999999787</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>46.582699999999932</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>44.382700000000114</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>49.720699999999397</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>38.002999999999702</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>43.117400000000089</c:v>
+                  <c:v>3.0473000000001775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8258-484A-BEF0-1F32BAF83F0C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2017'!$P$6</c:f>
+              <c:f>'2018'!$P$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5801,10 +4649,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'2017'!$N$7:$N$250</c:f>
+              <c:f>'2018'!$N$7:$N$49</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>42738</c:v>
                 </c:pt>
@@ -5933,1355 +4781,154 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>42803</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42804</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42807</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42808</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>42809</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42810</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42811</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>42814</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42815</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>42816</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>42817</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>42818</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>42821</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>42822</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>42823</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>42824</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>42825</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>42830</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>42831</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>42832</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42835</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>42836</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>42837</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>42838</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>42839</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>42842</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>42843</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42844</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42845</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>42846</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>42849</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>42850</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>42851</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>42852</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>42853</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>42857</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>42858</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>42859</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>42860</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>42863</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>42864</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>42865</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>42866</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>42867</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>42870</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>42871</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>42872</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>42873</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>42874</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>42877</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>42878</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>42879</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>42880</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>42886</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>42888</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>42891</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>42892</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>42893</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>42894</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>42895</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>42898</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>42899</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>42900</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>42901</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>42902</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>42905</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>42906</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>42907</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>42908</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>42909</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>42912</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>42914</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>42915</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>42919</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>42920</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>42921</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>42922</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>42923</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>42926</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>42927</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>42928</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>42929</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>42930</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>42933</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>42934</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>42935</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>42936</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>42937</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>42940</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>42941</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>42942</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>42943</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>42944</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>42947</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>42948</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>42949</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>42950</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>42951</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>42954</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>42955</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>42956</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>42957</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>42958</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>42961</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>42962</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>42963</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>42964</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>42965</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>42968</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>42969</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>42970</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>42971</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>42972</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>42975</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>42976</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>42977</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>42978</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>42979</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>42982</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>42983</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>42984</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>42985</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>42986</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>42989</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>42990</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>42991</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>42992</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>42993</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>42996</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>42997</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>42998</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>42999</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>43000</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>43003</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>43004</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>43005</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>43006</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>43007</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>43017</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>43018</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>43019</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>43020</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>43021</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>43024</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>43025</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>43026</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>43027</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>43028</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>43031</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>43032</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>43033</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>43034</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>43035</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>43038</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>43039</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>43040</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>43041</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>43042</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>43045</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>43046</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>43047</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>43048</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>43049</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>43052</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>43053</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>43054</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>43055</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>43056</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>43059</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>43060</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>43061</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>43062</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>43063</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>43066</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>43067</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>43068</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>43069</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>43070</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>43073</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>43074</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>43075</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>43076</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>43077</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>43080</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>43081</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>43082</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>43083</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>43084</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>43087</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>43088</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>43089</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>43090</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>43091</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>43094</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>43095</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>43096</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>43097</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>43098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2017'!$P$7:$P$250</c:f>
+              <c:f>'2018'!$P$7:$P$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="244"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>53.772800000000188</c:v>
+                  <c:v>48.59880000000021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.688299999999799</c:v>
+                  <c:v>46.607500000000073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.210799999999836</c:v>
+                  <c:v>42.188100000000304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.333500000000186</c:v>
+                  <c:v>48.249499999999898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.098599999999806</c:v>
+                  <c:v>43.840500000000247</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.728399999999965</c:v>
+                  <c:v>48.702299999999923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.50460000000021</c:v>
+                  <c:v>48.186800000000403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.375900000000001</c:v>
+                  <c:v>44.413700000000063</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.087799999999788</c:v>
+                  <c:v>47.998999999999796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.554500000000189</c:v>
+                  <c:v>39.760699999999815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.643700000000081</c:v>
+                  <c:v>49.527000000000044</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.634700000000066</c:v>
+                  <c:v>46.883600000000115</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56.710900000000038</c:v>
+                  <c:v>51.583200000000033</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60.110900000000129</c:v>
+                  <c:v>49.604999999999563</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.0808000000001812</c:v>
+                  <c:v>53.402600000000348</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.4508999999998196</c:v>
+                  <c:v>5.3870999999999185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.9041999999999462</c:v>
+                  <c:v>1.1147000000000844</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.96059999999988577</c:v>
+                  <c:v>-2.0793999999996231</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5077000000001135</c:v>
+                  <c:v>3.7003999999997177</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.2051000000001295</c:v>
+                  <c:v>-1.8100000000231375E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.6849000000001979</c:v>
+                  <c:v>1.897899999999936</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.28780000000006112</c:v>
+                  <c:v>-4.8986000000004424</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.2923999999998159</c:v>
+                  <c:v>-4.8977999999997337</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.48680000000013024</c:v>
+                  <c:v>-4.232600000000275</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.2750000000000909</c:v>
+                  <c:v>-11.14639999999963</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.80420000000003711</c:v>
+                  <c:v>-5.8855999999996129</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2869000000000597</c:v>
+                  <c:v>-5.4971999999997934</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.933100000000195</c:v>
+                  <c:v>-4.7200000000430009E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.441899999999805</c:v>
+                  <c:v>-13.652700000000095</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.6073999999998705</c:v>
+                  <c:v>-8.1046000000001186</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-8.8229999999998654</c:v>
+                  <c:v>-6.6323999999999614</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.7566999999999098</c:v>
+                  <c:v>-2.9614000000001397</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.3236000000001695</c:v>
+                  <c:v>-6.7331999999996697</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-6.8517000000001644</c:v>
+                  <c:v>-3.088900000000649</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6.2228000000000065</c:v>
+                  <c:v>1.5814000000000306</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-7.8103000000000975</c:v>
+                  <c:v>2.0194000000001324</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-9.4376000000002023</c:v>
+                  <c:v>-3.641500000000633</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.9036999999998443</c:v>
+                  <c:v>-8.6299999999482679E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-3.8627999999998792</c:v>
+                  <c:v>5.5390000000006694</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-5.4839999999999236</c:v>
+                  <c:v>-5.0970000000002074</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-7.9564999999997781</c:v>
+                  <c:v>6.4353000000005522</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2687000000000808</c:v>
+                  <c:v>3.3463999999999032</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-7.9438000000000102</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-5.8915999999999258</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.90200000000004366</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-5.6934000000001106</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-6.6435999999998785</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-3.5066000000001623</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-6.8051000000000386</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-8.6125999999999294</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-1.3467999999998028</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-3.0502000000001317</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-4.9782000000000153</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.40029999999978827</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-4.0385000000001128</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.80929999999989377</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-3.1932999999999083</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-7.7579999999998108</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-2.0455000000001746</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.1068000000000211</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-7.0468999999998232</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-3.4634000000000924</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.13920000000007349</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-3.3279999999999745</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-8.4387000000001535</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.56620000000020809</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-1.5045000000000073</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-6.9416999999998552</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.2570999999998094</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-7.8760999999999513</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-4.5480999999999767</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-6.7865000000001601</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-8.2586999999998625</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-6.9742999999998574</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-3.1831999999999425</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-2.7202000000002045</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-8.7530000000001564</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.57659999999987122</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-4.1282000000001062</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-8.3863999999998668</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-8.5502000000001317</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-13.8125</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-4.5324000000000524</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-1.7006999999998698</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-3.6458999999999833</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-5.3787000000002081</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-5.1936999999998079</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.3508999999999105</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.0344000000000051</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-2.1127000000001317</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-1.8492000000001099</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-6.2386999999998807</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-4.19399999999996</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-4.1669000000001688</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7.341899999999896</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.5655000000001564</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-3.8845000000001164</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-0.73819999999977881</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.4926000000000386</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-3.7537999999999556</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-0.88160000000016225</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>6.1282000000001062</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>4.0214000000000851</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>10.829699999999775</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>5.6105999999999767</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>4.7325999999998203</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>15.701300000000174</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>10.20739999999978</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>14.23889999999983</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>19.334699999999884</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>15.505999999999858</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>19.045000000000073</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20.6574999999998</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>23.116899999999987</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>22.908100000000104</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>18.284799999999905</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>21.833399999999983</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>21.172099999999773</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>17.202299999999923</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>17.153699999999844</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>18.015899999999874</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>25.320499999999811</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>21.903299999999945</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>24.070700000000215</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>30.313200000000052</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>43.191400000000158</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>33.17639999999983</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>43.079499999999825</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>51.905999999999949</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>40.442500000000109</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>38.819300000000112</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>53.253400000000056</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>53.115699999999833</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>53.402399999999943</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>57.531399999999849</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>52.440999999999804</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>45.61160000000018</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>49.805299999999988</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>54.108600000000024</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>52.126800000000003</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>49.617200000000139</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>59.147500000000036</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>54.173600000000079</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>51.420399999999972</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>55.205199999999877</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>50.787100000000009</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>48.956000000000131</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>56.079200000000128</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>52.649699999999939</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>51.316899999999805</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>49.943400000000111</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>48.579299999999876</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>57.722999999999956</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>56.325200000000223</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>56.005900000000111</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>50.702000000000226</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>56.911599999999908</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>58.354200000000219</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>63.245600000000195</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>60.288100000000213</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>60.462399999999889</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>56.699500000000171</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>61.907200000000103</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>58.461699999999837</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>57.383699999999862</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>59.953599999999824</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>55.550099999999929</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>58.128700000000208</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>58.010499999999865</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>64.354699999999866</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>62.065900000000056</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>60.393900000000031</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>60.044600000000173</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>64.703500000000076</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>67.857199999999921</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>53.883899999999812</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>61.564699999999903</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>67.182400000000143</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>56.269600000000082</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>60.208500000000186</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>59.218400000000202</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>61.800000000000182</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>66.46140000000014</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>65.498700000000099</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>60.792399999999816</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>58.136300000000119</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>60.313200000000052</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>67.046400000000176</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>66.998300000000199</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>60.553800000000138</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>58.93119999999999</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>51.837399999999889</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>53.750500000000102</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>56.148000000000138</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>64.201900000000023</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>61.604699999999866</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>57.050999999999931</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>69.424799999999323</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>61.032400000000052</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>55.278200000000652</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>55.282100000000355</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>51.377899999999954</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>57.865699999999379</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>51.302099999999427</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>59.110400000000027</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>65.753499999999804</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>62.994299999999839</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>66.100199999999859</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>67.088800000000447</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>59.926699999999983</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>56.649000000000342</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>52.330399999999827</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>59.987799999999879</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>49.149199999999837</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>59.166599999999562</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>68.298499999999876</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>57.433399999999892</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>46.603399999999965</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>48.796599999999671</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>36.052500000000236</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>49.176500000000033</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>47.247100000000046</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>47.900700000000597</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>58.863500000000386</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>55.142899999999827</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>58.829600000000028</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>52.17889999999943</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>50.943100000000413</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>57.620800000000145</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>58.500300000000152</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>46.983699999999772</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>41.907299999999395</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>52.848399999999401</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>44.144200000000637</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>40.708599999999933</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>43.670599999999467</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>39.510200000000623</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>52.151499999999942</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>46.401600000000144</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>40.459899999999834</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>40.377600000000257</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>34.792500000000018</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>44.102599999999711</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>45.145099999999729</c:v>
+                  <c:v>3.3999000000003434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8258-484A-BEF0-1F32BAF83F0C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7291,7 +4938,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="400811520"/>
         <c:axId val="264040384"/>
@@ -7348,7 +4994,3102 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017'!$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>open</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017'!$N$7:$N$250</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="244"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42898</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42905</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42907</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42912</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>42922</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>42923</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>42926</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>42927</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>42929</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>42933</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>42934</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42942</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42949</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42950</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42951</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42954</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42955</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42956</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42957</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42958</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42961</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42963</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42964</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42965</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42968</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42969</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42970</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42971</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42972</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42975</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42976</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42977</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42982</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42983</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42984</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42985</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>42986</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>42989</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>42990</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>42991</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>42992</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>42997</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42998</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43003</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43004</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43005</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43006</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43007</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43017</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43018</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43019</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43021</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43024</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43025</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43026</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43027</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43028</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43031</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43032</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43033</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43034</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43035</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43038</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43041</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43042</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43045</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43046</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43049</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43052</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43053</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43055</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43056</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43059</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43060</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43061</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43062</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43063</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43066</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43067</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43068</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>43073</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>43076</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>43077</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>43080</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43081</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43082</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43083</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43084</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43087</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43088</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>43089</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43090</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>43091</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>43094</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>43095</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>43096</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>43097</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>43098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017'!$O$7:$O$250</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="244"/>
+                <c:pt idx="0">
+                  <c:v>48.046600000000126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.442399999999907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.659799999999905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.147800000000188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.251699999999801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.360599999999977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.199200000000019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.314300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.037499999999909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.849299999999857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.399899999999889</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.661099999999806</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58.047799999999825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.022699999999986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94570000000021537</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.1374000000000706</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.65610000000015134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.2609000000002197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.9315000000001419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.10809999999992215</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.7694999999998799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.7811000000001513</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.899199999999837</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.31730000000015934</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.9167999999999665</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.5109999999999673</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.3881999999998698</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1700999999998203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.6165999999998348</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.6433999999999287</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.0583999999998923</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.200800000000072</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.574500000000171</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0412000000001171</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.1318999999998596</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-9.0273999999999432</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5.2058000000001812</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.4828999999999724</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3373000000001412</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.2532999999998538</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.1628000000000611</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.2006000000001222</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1046999999998661</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.9776000000001659</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-9.6723000000001775</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.65839999999980137</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.2139000000001943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7.2694000000001324</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-7.3114000000000487</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.0515000000000327</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8.7696000000000822</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.245600000000195</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.4056000000000495</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-6.1966000000002168</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.23529999999982465</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.2489999999997963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.9664999999999964</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-6.6158999999997832</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-5.8222000000000662</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.4230999999999767</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0120999999999185</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-5.4520999999999731</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.4596999999998843</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.17059999999992215</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.5722999999998137</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.2838000000001557</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.8103000000000975</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.2618999999999687</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-6.8892000000000735</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.0095999999998639</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-8.5225000000000364</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.3890000000001237</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-7.2278999999998632</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2678000000000793</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-6.2525999999998021</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.8982999999998356</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4265000000000327</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.9169000000001688</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.24139999999988504</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0621000000001004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.4830999999999221</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.89159999999992579</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.5981000000001586</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.6502000000000407</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.0545000000001892</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.2899999999899592E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.5880999999999403</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.4999999999818101E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.8099999999999454</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11.334499999999935</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.2318000000000211</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.4117999999998574</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.0253999999999905</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.283100000000104</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.600800000000163</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.379399999999805</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.9270000000001346</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.2222999999999047</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.4106999999999061</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-2.1691999999998188</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.62350000000014916</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.1154000000001361</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.7581000000000131</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.7588999999998123</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.7809000000002015</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8405999999999949</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>13.751699999999801</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>19.253499999999804</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.025500000000193</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14.939800000000105</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>15.212899999999991</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>17.874400000000151</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16.441699999999855</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>24.564100000000053</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18.979200000000219</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23.422500000000127</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>25.837100000000191</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>19.747499999999945</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>23.265199999999822</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17.768399999999929</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>20.172000000000025</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>24.101599999999962</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>30.442399999999907</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>29.358400000000074</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31.0621000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>33.121700000000146</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>35.367200000000139</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>36.649800000000141</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>48.384700000000066</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>51.382099999999809</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>49.505799999999908</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44.133499999999913</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>54.856400000000122</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>52.815300000000207</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>53.622199999999793</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57.359500000000025</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>49.123900000000049</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>51.144200000000183</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>53.510499999999865</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>53.571800000000167</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>51.263600000000224</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>53.80619999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>58.891900000000078</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>57.277500000000146</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>50.783899999999903</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>59.671299999999974</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>51.968100000000049</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>48.038000000000011</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>60.06860000000006</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>49.6246000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>51.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>50.866300000000138</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>48.933199999999943</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>59.810899999999947</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>59.160100000000057</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>50.245699999999943</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>55.389200000000073</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>57.109800000000178</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>55.708399999999983</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>56.343299999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>64.822099999999864</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>59.731800000000021</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>55.160600000000159</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>58.660800000000108</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>60.455300000000079</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>57.45490000000018</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>61.252899999999954</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>56.311999999999898</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>59.929299999999785</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>60.657799999999952</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>67.757799999999861</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>66.45069999999987</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>57.427999999999884</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>61.855199999999968</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>60.037400000000162</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>62.120600000000195</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>53.845100000000002</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>60.742299999999886</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>63.541099999999915</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>59.780999999999949</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>62.666700000000219</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>60.035400000000209</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>61.409599999999955</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>63.797900000000027</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>61.885099999999966</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>56.996299999999792</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>61.181599999999889</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>59.984399999999823</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>58.025000000000091</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>61.724600000000009</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>63.210599999999886</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>56.184799999999996</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>57.416900000000169</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>63.473500000000058</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>56.108600000000024</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>59.770100000000184</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>56.833099999999376</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>54.952099999999973</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>65.446100000000115</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>63.835900000000493</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>56.606499999999414</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>53.088400000000092</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>53.9054000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>58.650399999999991</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>48.817600000000311</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>56.598199999999451</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>64.50649999999996</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>63.933700000000044</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>63.723700000000008</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>64.449300000000221</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>60.726399999999558</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>64.78690000000006</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>61.505700000000161</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>63.921299999999974</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>64.266000000000076</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>65.151799999999639</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>58.627900000000409</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>65.621900000000096</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>49.527700000000095</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>51.068200000000161</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>46.794300000000476</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>47.645500000000084</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>62.990899999999783</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>49.439600000000155</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>63.953399999999874</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>56.063900000000103</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>62.876900000000205</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>59.417399999999361</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>59.171200000000681</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>53.121599999999489</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>55.494700000000194</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>49.168099999999413</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>42.097200000000157</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>49.268699999999626</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>44.703499999999622</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>44.176700000000437</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>39.980999999999767</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>38.924000000000433</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>53.086899999999787</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>46.582699999999932</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>44.382700000000114</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>49.720699999999397</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>38.002999999999702</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>43.117400000000089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62FB-4391-A76B-CB54C0053DC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017'!$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>close</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017'!$N$7:$N$250</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="244"/>
+                <c:pt idx="0">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42759</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42760</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42772</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42780</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42783</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42786</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42787</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42788</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42790</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42839</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42853</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42857</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42859</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42864</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42877</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42879</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42880</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42891</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42898</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42905</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42907</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42908</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42912</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42920</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>42922</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>42923</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>42926</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>42927</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>42929</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>42933</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>42934</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42937</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42941</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42942</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42943</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42949</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42950</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42951</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42954</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42955</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42956</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42957</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42958</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42961</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42962</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42963</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42964</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42965</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42968</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42969</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42970</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42971</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42972</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42975</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42976</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42977</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42982</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42983</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42984</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42985</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>42986</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>42989</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>42990</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>42991</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>42992</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>42993</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>42997</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42998</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43003</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43004</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43005</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43006</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43007</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43017</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43018</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43019</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43021</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43024</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43025</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43026</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43027</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43028</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43031</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43032</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43033</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43034</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43035</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43038</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43041</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43042</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43045</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43046</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43049</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43052</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43053</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43055</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43056</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43059</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43060</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43061</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43062</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43063</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43066</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43067</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43068</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>43073</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>43076</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>43077</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>43080</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43081</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43082</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43083</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43084</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43087</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43088</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>43089</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43090</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>43091</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>43094</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>43095</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>43096</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>43097</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>43098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017'!$P$7:$P$250</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="244"/>
+                <c:pt idx="0">
+                  <c:v>53.772800000000188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.688299999999799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.210799999999836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.333500000000186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.098599999999806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.728399999999965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.50460000000021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.375900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.087799999999788</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.554500000000189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.643700000000081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.634700000000066</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.710900000000038</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.110900000000129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.0808000000001812</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.4508999999998196</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.9041999999999462</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.96059999999988577</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5077000000001135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.2051000000001295</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.6849000000001979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.28780000000006112</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.2923999999998159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.48680000000013024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.2750000000000909</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.80420000000003711</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2869000000000597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.933100000000195</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.441899999999805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6073999999998705</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.8229999999998654</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.7566999999999098</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.3236000000001695</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.8517000000001644</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.2228000000000065</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7.8103000000000975</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.4376000000002023</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9036999999998443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.8627999999998792</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.4839999999999236</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.9564999999997781</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2687000000000808</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.9438000000000102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.8915999999999258</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.90200000000004366</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5.6934000000001106</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-6.6435999999998785</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.5066000000001623</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.8051000000000386</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.6125999999999294</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.3467999999998028</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.0502000000001317</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-4.9782000000000153</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.40029999999978827</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-4.0385000000001128</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.80929999999989377</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.1932999999999083</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.7579999999998108</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.0455000000001746</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.1068000000000211</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-7.0468999999998232</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.4634000000000924</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.13920000000007349</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.3279999999999745</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-8.4387000000001535</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.56620000000020809</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.5045000000000073</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-6.9416999999998552</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2570999999998094</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-7.8760999999999513</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-4.5480999999999767</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-6.7865000000001601</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-8.2586999999998625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-6.9742999999998574</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.1831999999999425</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.7202000000002045</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-8.7530000000001564</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.57659999999987122</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-4.1282000000001062</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-8.3863999999998668</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-8.5502000000001317</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-13.8125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-4.5324000000000524</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.7006999999998698</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.6458999999999833</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-5.3787000000002081</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-5.1936999999998079</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.3508999999999105</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0344000000000051</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.1127000000001317</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.8492000000001099</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-6.2386999999998807</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-4.19399999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-4.1669000000001688</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.341899999999896</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.5655000000001564</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-3.8845000000001164</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.73819999999977881</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4926000000000386</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-3.7537999999999556</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.88160000000016225</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.1282000000001062</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.0214000000000851</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.829699999999775</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.6105999999999767</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.7325999999998203</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15.701300000000174</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.20739999999978</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14.23889999999983</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19.334699999999884</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>15.505999999999858</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>19.045000000000073</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>20.6574999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23.116899999999987</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>22.908100000000104</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>18.284799999999905</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>21.833399999999983</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21.172099999999773</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>17.202299999999923</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17.153699999999844</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18.015899999999874</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>25.320499999999811</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>21.903299999999945</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>24.070700000000215</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>30.313200000000052</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43.191400000000158</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>33.17639999999983</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43.079499999999825</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51.905999999999949</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>40.442500000000109</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>38.819300000000112</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>53.253400000000056</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>53.115699999999833</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>53.402399999999943</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>57.531399999999849</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>52.440999999999804</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>45.61160000000018</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>49.805299999999988</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>54.108600000000024</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>52.126800000000003</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>49.617200000000139</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>59.147500000000036</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>54.173600000000079</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>51.420399999999972</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>55.205199999999877</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>50.787100000000009</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>48.956000000000131</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>56.079200000000128</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>52.649699999999939</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>51.316899999999805</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>49.943400000000111</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>48.579299999999876</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57.722999999999956</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>56.325200000000223</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>56.005900000000111</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>50.702000000000226</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>56.911599999999908</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>58.354200000000219</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>63.245600000000195</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>60.288100000000213</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>60.462399999999889</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>56.699500000000171</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>61.907200000000103</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>58.461699999999837</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>57.383699999999862</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>59.953599999999824</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>55.550099999999929</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>58.128700000000208</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>58.010499999999865</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>64.354699999999866</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>62.065900000000056</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>60.393900000000031</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>60.044600000000173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>64.703500000000076</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>67.857199999999921</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>53.883899999999812</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>61.564699999999903</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>67.182400000000143</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>56.269600000000082</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>60.208500000000186</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>59.218400000000202</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>61.800000000000182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>66.46140000000014</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>65.498700000000099</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>60.792399999999816</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>58.136300000000119</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>60.313200000000052</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>67.046400000000176</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>66.998300000000199</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>60.553800000000138</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>58.93119999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>51.837399999999889</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>53.750500000000102</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>56.148000000000138</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>64.201900000000023</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>61.604699999999866</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>57.050999999999931</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>69.424799999999323</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>61.032400000000052</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>55.278200000000652</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>55.282100000000355</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>51.377899999999954</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>57.865699999999379</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>51.302099999999427</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>59.110400000000027</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>65.753499999999804</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>62.994299999999839</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>66.100199999999859</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>67.088800000000447</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>59.926699999999983</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>56.649000000000342</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>52.330399999999827</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>59.987799999999879</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>49.149199999999837</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>59.166599999999562</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>68.298499999999876</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>57.433399999999892</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>46.603399999999965</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>48.796599999999671</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>36.052500000000236</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>49.176500000000033</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>47.247100000000046</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>47.900700000000597</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>58.863500000000386</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>55.142899999999827</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>58.829600000000028</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>52.17889999999943</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>50.943100000000413</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>57.620800000000145</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>58.500300000000152</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>46.983699999999772</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>41.907299999999395</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>52.848399999999401</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44.144200000000637</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>40.708599999999933</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43.670599999999467</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>39.510200000000623</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>52.151499999999942</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>46.401600000000144</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>40.459899999999834</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>40.377600000000257</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>34.792500000000018</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>44.102599999999711</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>45.145099999999729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62FB-4391-A76B-CB54C0053DC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="400811520"/>
+        <c:axId val="264040384"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="400811520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="264040384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="264040384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="400811520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8867,6 +9608,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B4F-4E7A-9049-B110BD6D82FF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -10368,6 +11114,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B4F-4E7A-9049-B110BD6D82FF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10377,7 +11128,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="400812544"/>
         <c:axId val="264042688"/>
@@ -10418,7 +11168,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10433,8 +11182,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -11953,6 +12702,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C6E-4A7D-A0E5-4EB3D403874F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -13454,6 +14208,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C6E-4A7D-A0E5-4EB3D403874F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13463,7 +14222,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="401236480"/>
         <c:axId val="401105472"/>
@@ -13504,7 +14262,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13519,8 +14276,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -15039,6 +15796,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9432-41E6-8B80-2DA776EC1F6B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -16540,6 +17302,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9432-41E6-8B80-2DA776EC1F6B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16549,7 +17316,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="401238528"/>
         <c:axId val="401107776"/>
@@ -16592,7 +17358,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16607,8 +17372,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -18091,6 +18856,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEA8-4CC3-94EB-514CE25E54AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -19556,6 +20326,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEA8-4CC3-94EB-514CE25E54AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -19565,7 +20340,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="401530368"/>
         <c:axId val="401110080"/>
@@ -19608,7 +20382,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19629,19 +20402,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -19676,9 +20451,7 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -19744,6 +20517,43 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>285</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -19769,7 +20579,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19870,7 +20680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19905,7 +20715,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20114,10 +20924,1454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C3" s="2" t="str">
+        <f>[1]!WSS(C4,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
+        <v>300ETF</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>[1]!WSS(I4,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
+        <v>沪深300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
+        <v>43102</v>
+      </c>
+      <c r="C7" s="4">
+        <f>[1]!WSD(C4,C6:D6,"2018-01-01","2018-3-8","TradingCalendar=SSE","Currency=CNY","rptType=1","ShowParams=Y","cols=2;rows=43")</f>
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43102</v>
+      </c>
+      <c r="I7" s="4">
+        <f>[1]!WSD(I4,I6:J6,"2018-01-02","2018-3-8","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=2;rows=43")</f>
+        <v>4045.2085999999999</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4087.4011999999998</v>
+      </c>
+      <c r="N7" s="3">
+        <v>42738</v>
+      </c>
+      <c r="O7" s="1">
+        <f>C7*1000-I7</f>
+        <v>40.791400000000522</v>
+      </c>
+      <c r="P7" s="1">
+        <f>D7*1000-J7</f>
+        <v>48.59880000000021</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
+        <v>43103</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.1580000000000004</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43103</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4091.4607000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4111.3924999999999</v>
+      </c>
+      <c r="N8" s="3">
+        <v>42739</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ref="O8:P49" si="0">C8*1000-I8</f>
+        <v>44.539299999999912</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>46.607500000000073</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
+        <v>43104</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.1580000000000004</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="H9" s="3">
+        <v>43104</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4114.1212999999998</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4128.8118999999997</v>
+      </c>
+      <c r="N9" s="3">
+        <v>42740</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>43.878700000000208</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>42.188100000000304</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
+        <v>43105</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.1870000000000003</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43105</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4133.3438999999998</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4138.7505000000001</v>
+      </c>
+      <c r="N10" s="3">
+        <v>42741</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>45.656100000000151</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>48.249499999999898</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>43108</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4.1859999999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.2039999999999997</v>
+      </c>
+      <c r="H11" s="3">
+        <v>43108</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4140.8545000000004</v>
+      </c>
+      <c r="J11" s="4">
+        <v>4160.1594999999998</v>
+      </c>
+      <c r="N11" s="3">
+        <v>42744</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>45.145499999999629</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>43.840500000000247</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>43109</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.2039999999999997</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.2380000000000004</v>
+      </c>
+      <c r="H12" s="3">
+        <v>43109</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4157.5393999999997</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4189.2977000000001</v>
+      </c>
+      <c r="N12" s="3">
+        <v>42745</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>46.460600000000341</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>48.702299999999923</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>43110</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.234</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4.2560000000000002</v>
+      </c>
+      <c r="H13" s="3">
+        <v>43110</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4187.2043999999996</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4207.8131999999996</v>
+      </c>
+      <c r="N13" s="3">
+        <v>42746</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>46.795600000000377</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>48.186800000000403</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>43111</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.2489999999999997</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="H14" s="3">
+        <v>43111</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4197.1135999999997</v>
+      </c>
+      <c r="J14" s="4">
+        <v>4205.5862999999999</v>
+      </c>
+      <c r="N14" s="3">
+        <v>42747</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>51.886400000000322</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="0"/>
+        <v>44.413700000000063</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>43112</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2729999999999997</v>
+      </c>
+      <c r="H15" s="3">
+        <v>43112</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4205.1444000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <v>4225.0010000000002</v>
+      </c>
+      <c r="N15" s="3">
+        <v>42748</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>44.855599999999868</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="0"/>
+        <v>47.998999999999796</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>43115</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4.2729999999999997</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.2649999999999997</v>
+      </c>
+      <c r="H16" s="3">
+        <v>43115</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4229.8356999999996</v>
+      </c>
+      <c r="J16" s="4">
+        <v>4225.2393000000002</v>
+      </c>
+      <c r="N16" s="3">
+        <v>42751</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>43.164300000000367</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="0"/>
+        <v>39.760699999999815</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>43116</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.2649999999999997</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.3079999999999998</v>
+      </c>
+      <c r="H17" s="3">
+        <v>43116</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4215.6247000000003</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4258.473</v>
+      </c>
+      <c r="N17" s="3">
+        <v>42752</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>49.375299999999697</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="0"/>
+        <v>49.527000000000044</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
+        <v>43117</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4.3090000000000002</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>43117</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4261.7833000000001</v>
+      </c>
+      <c r="J18" s="4">
+        <v>4248.1163999999999</v>
+      </c>
+      <c r="N18" s="3">
+        <v>42753</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="0"/>
+        <v>47.216699999999946</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="0"/>
+        <v>46.883600000000115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>43118</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.3010000000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4.3230000000000004</v>
+      </c>
+      <c r="H19" s="3">
+        <v>43118</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4259.375</v>
+      </c>
+      <c r="J19" s="4">
+        <v>4271.4168</v>
+      </c>
+      <c r="N19" s="3">
+        <v>42754</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="0"/>
+        <v>41.625</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="0"/>
+        <v>51.583200000000033</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>43119</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4.335</v>
+      </c>
+      <c r="H20" s="3">
+        <v>43119</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4281.9371000000001</v>
+      </c>
+      <c r="J20" s="4">
+        <v>4285.3950000000004</v>
+      </c>
+      <c r="N20" s="3">
+        <v>42755</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="0"/>
+        <v>43.0628999999999</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="0"/>
+        <v>49.604999999999563</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
+        <v>43122</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H21" s="3">
+        <v>43122</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4276.4811</v>
+      </c>
+      <c r="J21" s="4">
+        <v>4336.5973999999997</v>
+      </c>
+      <c r="N21" s="3">
+        <v>42758</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="0"/>
+        <v>45.518900000000031</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="0"/>
+        <v>53.402600000000348</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
+        <v>43123</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.3529999999999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>43123</v>
+      </c>
+      <c r="I22" s="4">
+        <v>4346.8885</v>
+      </c>
+      <c r="J22" s="4">
+        <v>4382.6129000000001</v>
+      </c>
+      <c r="N22" s="3">
+        <v>42759</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1114999999999782</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3870999999999185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>43124</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4.391</v>
+      </c>
+      <c r="H23" s="3">
+        <v>43124</v>
+      </c>
+      <c r="I23" s="4">
+        <v>4389.4547000000002</v>
+      </c>
+      <c r="J23" s="4">
+        <v>4389.8852999999999</v>
+      </c>
+      <c r="N23" s="3">
+        <v>42760</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.4547000000002299</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1147000000000844</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>43125</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="H24" s="3">
+        <v>43125</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4381.9768000000004</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4365.0793999999996</v>
+      </c>
+      <c r="N24" s="3">
+        <v>42761</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0231999999996333</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.0793999999996231</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>43126</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="H25" s="3">
+        <v>43126</v>
+      </c>
+      <c r="I25" s="4">
+        <v>4352.2210999999998</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4381.2996000000003</v>
+      </c>
+      <c r="N25" s="3">
+        <v>42769</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2210999999997512</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7003999999997177</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>43129</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4.3019999999999996</v>
+      </c>
+      <c r="H26" s="3">
+        <v>43129</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4387.0577000000003</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4302.0181000000002</v>
+      </c>
+      <c r="N26" s="3">
+        <v>42772</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9422999999997046</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8100000000231375E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
+        <v>43130</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4.2919999999999998</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4.258</v>
+      </c>
+      <c r="H27" s="3">
+        <v>43130</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4286.6833999999999</v>
+      </c>
+      <c r="J27" s="4">
+        <v>4256.1021000000001</v>
+      </c>
+      <c r="N27" s="3">
+        <v>42773</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3166000000001077</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.897899999999936</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>43131</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4.2460000000000004</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4.2709999999999999</v>
+      </c>
+      <c r="H28" s="3">
+        <v>43131</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4234.1100999999999</v>
+      </c>
+      <c r="J28" s="4">
+        <v>4275.8986000000004</v>
+      </c>
+      <c r="N28" s="3">
+        <v>42774</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="0"/>
+        <v>11.889900000000125</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.8986000000004424</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4.2409999999999997</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43132</v>
+      </c>
+      <c r="I29" s="4">
+        <v>4276.3424999999997</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4245.8977999999997</v>
+      </c>
+      <c r="N29" s="3">
+        <v>42775</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.3424999999997453</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.8977999999997337</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
+        <v>43133</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4.21</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4.2670000000000003</v>
+      </c>
+      <c r="H30" s="3">
+        <v>43133</v>
+      </c>
+      <c r="I30" s="4">
+        <v>4213.9386000000004</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4271.2326000000003</v>
+      </c>
+      <c r="N30" s="3">
+        <v>42776</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.938600000000406</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.232600000000275</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
+        <v>43136</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4.2629999999999999</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43136</v>
+      </c>
+      <c r="I31" s="4">
+        <v>4204.4579999999996</v>
+      </c>
+      <c r="J31" s="4">
+        <v>4274.1463999999996</v>
+      </c>
+      <c r="N31" s="3">
+        <v>42779</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="0"/>
+        <v>24.542000000000371</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.14639999999963</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
+        <v>43137</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4.1429999999999998</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43137</v>
+      </c>
+      <c r="I32" s="4">
+        <v>4182.3257000000003</v>
+      </c>
+      <c r="J32" s="4">
+        <v>4148.8855999999996</v>
+      </c>
+      <c r="N32" s="3">
+        <v>42780</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="0"/>
+        <v>17.674299999999675</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.8855999999996129</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
+        <v>43138</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="H33" s="3">
+        <v>43138</v>
+      </c>
+      <c r="I33" s="4">
+        <v>4205.7365</v>
+      </c>
+      <c r="J33" s="4">
+        <v>4050.4971999999998</v>
+      </c>
+      <c r="N33" s="3">
+        <v>42781</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.7364999999999782</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.4971999999997934</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
+        <v>43139</v>
+      </c>
+      <c r="C34" s="4">
+        <v>4.04</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4.0119999999999996</v>
+      </c>
+      <c r="H34" s="3">
+        <v>43139</v>
+      </c>
+      <c r="I34" s="4">
+        <v>4022.8802000000001</v>
+      </c>
+      <c r="J34" s="4">
+        <v>4012.0472</v>
+      </c>
+      <c r="N34" s="3">
+        <v>42782</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="0"/>
+        <v>17.119799999999941</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.7200000000430009E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
+        <v>43140</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3.9049999999999998</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3.827</v>
+      </c>
+      <c r="H35" s="3">
+        <v>43140</v>
+      </c>
+      <c r="I35" s="4">
+        <v>3896.1691000000001</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3840.6527000000001</v>
+      </c>
+      <c r="N35" s="3">
+        <v>42783</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8308999999999287</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="0"/>
+        <v>-13.652700000000095</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
+        <v>43143</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3.8359999999999999</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="H36" s="3">
+        <v>43143</v>
+      </c>
+      <c r="I36" s="4">
+        <v>3846.2671</v>
+      </c>
+      <c r="J36" s="4">
+        <v>3890.1046000000001</v>
+      </c>
+      <c r="N36" s="3">
+        <v>42786</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.267100000000028</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.1046000000001186</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
+        <v>43144</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3.9169999999999998</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3.9289999999999998</v>
+      </c>
+      <c r="H37" s="3">
+        <v>43144</v>
+      </c>
+      <c r="I37" s="4">
+        <v>3925.5954999999999</v>
+      </c>
+      <c r="J37" s="4">
+        <v>3935.6324</v>
+      </c>
+      <c r="N37" s="3">
+        <v>42787</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.5954999999999018</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.6323999999999614</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
+        <v>43145</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.964</v>
+      </c>
+      <c r="H38" s="3">
+        <v>43145</v>
+      </c>
+      <c r="I38" s="4">
+        <v>3945.0943000000002</v>
+      </c>
+      <c r="J38" s="4">
+        <v>3966.9614000000001</v>
+      </c>
+      <c r="N38" s="3">
+        <v>42788</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.094300000000203</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.9614000000001397</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
+        <v>43153</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4.016</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4.0460000000000003</v>
+      </c>
+      <c r="H39" s="3">
+        <v>43153</v>
+      </c>
+      <c r="I39" s="4">
+        <v>4020.9731000000002</v>
+      </c>
+      <c r="J39" s="4">
+        <v>4052.7332000000001</v>
+      </c>
+      <c r="N39" s="3">
+        <v>42789</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9731000000001586</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.7331999999996697</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
+        <v>43154</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4.0540000000000003</v>
+      </c>
+      <c r="D40" s="4">
+        <v>4.0679999999999996</v>
+      </c>
+      <c r="H40" s="3">
+        <v>43154</v>
+      </c>
+      <c r="I40" s="4">
+        <v>4061.7545</v>
+      </c>
+      <c r="J40" s="4">
+        <v>4071.0889000000002</v>
+      </c>
+      <c r="N40" s="3">
+        <v>42790</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.7544999999995525</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.088900000000649</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
+        <v>43157</v>
+      </c>
+      <c r="C41" s="4">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="H41" s="3">
+        <v>43157</v>
+      </c>
+      <c r="I41" s="4">
+        <v>4093.3987999999999</v>
+      </c>
+      <c r="J41" s="4">
+        <v>4118.4186</v>
+      </c>
+      <c r="N41" s="3">
+        <v>42793</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6012000000000626</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5814000000000306</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
+        <v>43158</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4.1280000000000001</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4.0609999999999999</v>
+      </c>
+      <c r="H42" s="3">
+        <v>43158</v>
+      </c>
+      <c r="I42" s="4">
+        <v>4120.8711999999996</v>
+      </c>
+      <c r="J42" s="4">
+        <v>4058.9805999999999</v>
+      </c>
+      <c r="N42" s="3">
+        <v>42794</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1288000000004104</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0194000000001324</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
+        <v>43159</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4.0279999999999996</v>
+      </c>
+      <c r="D43" s="4">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H43" s="3">
+        <v>43159</v>
+      </c>
+      <c r="I43" s="4">
+        <v>4016.7910999999999</v>
+      </c>
+      <c r="J43" s="4">
+        <v>4023.6415000000002</v>
+      </c>
+      <c r="N43" s="3">
+        <v>42795</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="0"/>
+        <v>11.20889999999963</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.641500000000633</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
+        <v>43160</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="H44" s="3">
+        <v>43160</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3994.8685999999998</v>
+      </c>
+      <c r="J44" s="4">
+        <v>4049.0862999999999</v>
+      </c>
+      <c r="N44" s="3">
+        <v>42796</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1314000000002125</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.6299999999482679E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
+        <v>43161</v>
+      </c>
+      <c r="C45" s="4">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4.0220000000000002</v>
+      </c>
+      <c r="H45" s="3">
+        <v>43161</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4014.951</v>
+      </c>
+      <c r="J45" s="4">
+        <v>4016.4609999999998</v>
+      </c>
+      <c r="N45" s="3">
+        <v>42797</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0489999999995234</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5390000000006694</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
+        <v>43164</v>
+      </c>
+      <c r="C46" s="4">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4.0129999999999999</v>
+      </c>
+      <c r="H46" s="3">
+        <v>43164</v>
+      </c>
+      <c r="I46" s="4">
+        <v>4021.6574999999998</v>
+      </c>
+      <c r="J46" s="4">
+        <v>4018.0970000000002</v>
+      </c>
+      <c r="N46" s="3">
+        <v>42800</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3425000000006548</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.0970000000002074</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
+        <v>43165</v>
+      </c>
+      <c r="C47" s="4">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4.0730000000000004</v>
+      </c>
+      <c r="H47" s="3">
+        <v>43165</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4034.9854</v>
+      </c>
+      <c r="J47" s="4">
+        <v>4066.5646999999999</v>
+      </c>
+      <c r="N47" s="3">
+        <v>42801</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0145999999999731</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4353000000005522</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
+        <v>43166</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4.07</v>
+      </c>
+      <c r="D48" s="4">
+        <v>4.04</v>
+      </c>
+      <c r="H48" s="3">
+        <v>43166</v>
+      </c>
+      <c r="I48" s="4">
+        <v>4063.5028000000002</v>
+      </c>
+      <c r="J48" s="4">
+        <v>4036.6536000000001</v>
+      </c>
+      <c r="N48" s="3">
+        <v>42802</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4972000000002481</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3463999999999032</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
+        <v>43167</v>
+      </c>
+      <c r="C49" s="4">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4.0810000000000004</v>
+      </c>
+      <c r="H49" s="3">
+        <v>43167</v>
+      </c>
+      <c r="I49" s="4">
+        <v>4038.9526999999998</v>
+      </c>
+      <c r="J49" s="4">
+        <v>4077.6001000000001</v>
+      </c>
+      <c r="N49" s="3">
+        <v>42803</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0473000000001775</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3999000000003434</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I4"/>
+    <sheetView topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27783,7 +30037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P250"/>
   <sheetViews>
@@ -35458,7 +37712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P250"/>
   <sheetViews>
@@ -43377,7 +45631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P251"/>
   <sheetViews>
@@ -51316,7 +53570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P244"/>
   <sheetViews>
